--- a/templates/3ASY01_RNASeqGEO/3ASY01_RNASeqGEO.xlsx
+++ b/templates/3ASY01_RNASeqGEO/3ASY01_RNASeqGEO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/3ASY01_RNASeqGEO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44DECF3-4D5C-7E4E-B6F2-2FB6A1AED20F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CAADE5-4785-8445-9EA4-000806B50376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -24,8 +24,147 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dominik Brilhaus</author>
+  </authors>
+  <commentList>
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{6C002665-3E02-CC4A-B4DE-D8D34CB93E03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dominik Brilhaus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">cv: controlled vocabulary
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">m: mandatory 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">o: optional (can be mapped)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>n: not required (cannot be mapped)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N28" authorId="0" shapeId="0" xr:uid="{894B0AC5-2CE6-8F4D-9405-785E9C5A85C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dominik Brilhaus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>I thought this is covered by "Library Selection"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS28" authorId="0" shapeId="0" xr:uid="{29AFF87E-4942-DE4F-B54A-76B81F013AF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dominik Brilhaus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"Data File Name" is ISA / SWATE standard</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="154">
   <si>
     <t>Source Name</t>
   </si>
@@ -169,16 +308,334 @@
   </si>
   <si>
     <t>Term Accession Number [microgram] (#h; #tUO:0000023; #u)</t>
+  </si>
+  <si>
+    <t>SWATE annotation table</t>
+  </si>
+  <si>
+    <t>Content examples</t>
+  </si>
+  <si>
+    <t>Semantic Modelling</t>
+  </si>
+  <si>
+    <t>Term Name</t>
+  </si>
+  <si>
+    <t>Term Accession Number (TAN)</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>is_a</t>
+  </si>
+  <si>
+    <t>is_a URI</t>
+  </si>
+  <si>
+    <t>Content type (Validation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment: </t>
+  </si>
+  <si>
+    <t>ER Pipeline: GEO - RNASeq - Plants</t>
+  </si>
+  <si>
+    <t>ER target term</t>
+  </si>
+  <si>
+    <t>ER requirement (cv/m/o/n)</t>
+  </si>
+  <si>
+    <t>Importance (0-5)</t>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>User instruction</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>rRNA Depletion</t>
+  </si>
+  <si>
+    <t>I would suggest to include this term, because rRNA depletioin is crucial for RNAseq library preparation</t>
+  </si>
+  <si>
+    <t>RNA-Seq strategy</t>
+  </si>
+  <si>
+    <t>cDNA method</t>
+  </si>
+  <si>
+    <t>Paired-end</t>
+  </si>
+  <si>
+    <t>Illumina TrueSeq</t>
+  </si>
+  <si>
+    <t>ACTTGA</t>
+  </si>
+  <si>
+    <t>HiSeq 2000</t>
+  </si>
+  <si>
+    <t>Illumina Casava</t>
+  </si>
+  <si>
+    <t>SampleName_S1_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>.fastq</t>
+  </si>
+  <si>
+    <t>ChIP-Seq strategy</t>
+  </si>
+  <si>
+    <t>size fractionation method</t>
+  </si>
+  <si>
+    <t>Single-end</t>
+  </si>
+  <si>
+    <t>TAGCTT</t>
+  </si>
+  <si>
+    <t>SampleName_S1_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>.ab1</t>
+  </si>
+  <si>
+    <t>ssRNA-seq</t>
+  </si>
+  <si>
+    <t>PolyA</t>
+  </si>
+  <si>
+    <t>CGTACG</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000035</t>
+  </si>
+  <si>
+    <t>GENEPIO_0001973: library strategy</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0001973</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Needs to have all instances from seq template (GEO)
+Add instances to NFDI4PSO ontology from seq template</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000036</t>
+  </si>
+  <si>
+    <t>GENEPIO_0001940: Library Selection</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0001940</t>
+  </si>
+  <si>
+    <t>Library Selection</t>
+  </si>
+  <si>
+    <t>Library strategy</t>
+  </si>
+  <si>
+    <t>Unable to find a parent class that covers both / only single vs. paired
+http://purl.obolibrary.org/obo/OBI_0600047
+http://purl.obolibrary.org/obo/NCIT_C150423"</t>
+  </si>
+  <si>
+    <t>For me, this belongs to the sequencing step, not to the construction step</t>
+  </si>
+  <si>
+    <t>How to handle deviations from instructer´s manual?</t>
+  </si>
+  <si>
+    <t>Add kits as instances to select from</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000015</t>
+  </si>
+  <si>
+    <t>Library layout</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000037</t>
+  </si>
+  <si>
+    <t>GENEPIO_0000085: library preparation kit</t>
+  </si>
+  <si>
+    <t>Library preparation kit</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000085</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000038</t>
+  </si>
+  <si>
+    <t>GENEPIO_0000149: library preparation kit version</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000149</t>
+  </si>
+  <si>
+    <t>Library preparation kit version</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000039</t>
+  </si>
+  <si>
+    <t>GENEPIO_0000083: adapter sequence</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000083</t>
+  </si>
+  <si>
+    <t>Adapter seuquence</t>
+  </si>
+  <si>
+    <t>Unit: microgram</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000016</t>
+  </si>
+  <si>
+    <t>Library RNA amount</t>
+  </si>
+  <si>
+    <t>Specific for GEO / RNA-Seq template</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000040</t>
+  </si>
+  <si>
+    <t>EFO_0003739: sequencer</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0003739</t>
+  </si>
+  <si>
+    <t>Next generation sequencing instrument model</t>
+  </si>
+  <si>
+    <t>OBI_0002468: base calling algorithm</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002468</t>
+  </si>
+  <si>
+    <t>Add base-calling softwares as instances</t>
+  </si>
+  <si>
+    <t>Alternative: http://edamontology.org/operation_3185</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000017</t>
+  </si>
+  <si>
+    <t>Base-calling Software</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000018</t>
+  </si>
+  <si>
+    <t>Base-calling Software Version</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000019</t>
+  </si>
+  <si>
+    <t>Base-calling Software Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only applies for library layout = paired-end. This is important for the converter to correctly assign paired-end files! </t>
+  </si>
+  <si>
+    <t>It is the name of the raw data, so I would use the term Raw Data File Name</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000020</t>
+  </si>
+  <si>
+    <t>Library strand</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000021</t>
+  </si>
+  <si>
+    <t>Raw data file format</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000022</t>
+  </si>
+  <si>
+    <t>Raw data file checksum</t>
+  </si>
+  <si>
+    <t>protocols.library_construction_protocol</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>protocols.library_strategy</t>
+  </si>
+  <si>
+    <t>raw_files.instrument_model</t>
+  </si>
+  <si>
+    <t>data_processing_pipeline.data_processing_step</t>
+  </si>
+  <si>
+    <t>raw_files.file_name</t>
+  </si>
+  <si>
+    <t>raw_files.file_type</t>
+  </si>
+  <si>
+    <t>raw_files.file_checksum</t>
+  </si>
+  <si>
+    <t>raw_files.single_or_paired-end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,8 +651,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +739,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4FB3D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF377D98"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,10 +817,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,12 +835,169 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{5A4EA250-5962-A84F-B56A-F423CA6BEC0B}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{DFD47CC1-D918-4340-9505-CC1F645AC6D8}"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -305,18 +1035,6 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -339,57 +1057,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{644C39E7-36F0-9A4B-B432-FC158C4EAA9E}" name="annotationTable2" displayName="annotationTable2" ref="A2:AV3" totalsRowShown="0">
-  <autoFilter ref="A2:AV3" xr:uid="{3BC338A9-04C5-5343-BA22-34CA5045E92A}"/>
-  <tableColumns count="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{644C39E7-36F0-9A4B-B432-FC158C4EAA9E}" name="annotationTable2" displayName="annotationTable2" ref="C2:AY3" totalsRowShown="0">
+  <autoFilter ref="C2:AY3" xr:uid="{3BC338A9-04C5-5343-BA22-34CA5045E92A}"/>
+  <tableColumns count="49">
     <tableColumn id="1" xr3:uid="{9ACF2691-D990-5D41-9C6B-275BFA06B6B8}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{B871C6EF-90A3-1D4E-A537-D8FF5106BDBF}" name="Sample Name"/>
-    <tableColumn id="3" xr3:uid="{94199463-8351-514E-9EAD-DFF200FA0E38}" name="Parameter [Library strategy]" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{94199463-8351-514E-9EAD-DFF200FA0E38}" name="Parameter [Library strategy]" dataDxfId="25"/>
     <tableColumn id="4" xr3:uid="{B1496354-2C5D-1C48-B0C5-B2D186BB2C34}" name="Term Source REF [Library strategy] (#h; #tNFDI4PSO:0000035)"/>
     <tableColumn id="5" xr3:uid="{99D60052-24DF-8C41-A74E-AA5E1DF3D60B}" name="Term Accession Number [Library strategy] (#h; #tNFDI4PSO:0000035)"/>
-    <tableColumn id="6" xr3:uid="{FC5523AE-20D6-9146-AE4D-5A54F4869A9D}" name="Parameter [Library Selection]" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{FC5523AE-20D6-9146-AE4D-5A54F4869A9D}" name="Parameter [Library Selection]" dataDxfId="24"/>
     <tableColumn id="7" xr3:uid="{39DA5E12-4B2B-8E43-A47E-CEF96F39EFD4}" name="Term Source REF [Library Selection] (#h; #tNFDI4PSO:0000036)"/>
     <tableColumn id="8" xr3:uid="{B3C8EAFE-44F7-4247-B18F-EAD4B194CFE9}" name="Term Accession Number [Library Selection] (#h; #tNFDI4PSO:0000036)"/>
-    <tableColumn id="9" xr3:uid="{E47A58FD-232F-4440-8623-8F863EBE7722}" name="Parameter [Library layout]" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{E47A58FD-232F-4440-8623-8F863EBE7722}" name="Parameter [Library layout]" dataDxfId="23"/>
     <tableColumn id="10" xr3:uid="{7F27F67A-0619-9744-B635-28EA2E1EE2CA}" name="Term Source REF [Library layout] (#h)"/>
     <tableColumn id="11" xr3:uid="{60293747-D5F7-E740-9296-E1E9B0006AC0}" name="Term Accession Number [Library layout] (#h)"/>
-    <tableColumn id="15" xr3:uid="{F4CB138B-D50D-AC40-AB47-F9127516E361}" name="Parameter [Library preparation kit version]" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{F10584D2-46CF-5B44-B4D4-435967CF4AFF}" name="Term Source REF [Library preparation kit version] (#h; #tNFDI4PSO:0000038)"/>
-    <tableColumn id="17" xr3:uid="{C597DC15-81F1-C740-B52D-F69FAB2EA5E6}" name="Term Accession Number [Library preparation kit version] (#h; #tNFDI4PSO:0000038)"/>
-    <tableColumn id="12" xr3:uid="{1243D851-1C3F-494E-A25C-3B8BB8D0926B}" name="Parameter [Library preparation kit]" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{8E3BDAF6-B635-B24A-A064-4E8E9A22A1D8}" name="Term Source REF [Library preparation kit] (#h; #tNFDI4PSO:0000037)"/>
-    <tableColumn id="14" xr3:uid="{E7CA87C9-F1BA-C441-A762-424DF654E451}" name="Term Accession Number [Library preparation kit] (#h; #tNFDI4PSO:0000037)"/>
-    <tableColumn id="24" xr3:uid="{FC369AF1-57DB-7F44-9BF2-58D513DCFBBA}" name="Parameter [Adapter sequence]" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{4DBE9ADE-00E1-BD41-925D-58DFFE98D935}" name="Term Source REF [Adapter sequence] (#h; #tNFDI4PSO:0000039)"/>
-    <tableColumn id="26" xr3:uid="{F4036B72-D4A4-7C48-A2F5-B6E6967B2009}" name="Term Accession Number [Adapter sequence] (#h; #tNFDI4PSO:0000039)"/>
-    <tableColumn id="18" xr3:uid="{0CB5C37E-129C-8546-9BBA-9255AAB1830B}" name="Parameter [Library RNA amount]" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{5A6E8EF8-95D7-EC4D-ACE1-04F64FD48B1D}" name="rRNA Depletion" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{1243D851-1C3F-494E-A25C-3B8BB8D0926B}" name="Parameter [Library preparation kit]" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{8E3BDAF6-B635-B24A-A064-4E8E9A22A1D8}" name="Term Source REF [Library preparation kit] (#h; #tNFDI4PSO:0000037)" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{E7CA87C9-F1BA-C441-A762-424DF654E451}" name="Term Accession Number [Library preparation kit] (#h; #tNFDI4PSO:0000037)" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{F4CB138B-D50D-AC40-AB47-F9127516E361}" name="Parameter [Library preparation kit version]" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{F10584D2-46CF-5B44-B4D4-435967CF4AFF}" name="Term Source REF [Library preparation kit version] (#h; #tNFDI4PSO:0000038)" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{C597DC15-81F1-C740-B52D-F69FAB2EA5E6}" name="Term Accession Number [Library preparation kit version] (#h; #tNFDI4PSO:0000038)" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{FC369AF1-57DB-7F44-9BF2-58D513DCFBBA}" name="Parameter [Adapter sequence]" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{4DBE9ADE-00E1-BD41-925D-58DFFE98D935}" name="Term Source REF [Adapter sequence] (#h; #tNFDI4PSO:0000039)" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{F4036B72-D4A4-7C48-A2F5-B6E6967B2009}" name="Term Accession Number [Adapter sequence] (#h; #tNFDI4PSO:0000039)" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{0CB5C37E-129C-8546-9BBA-9255AAB1830B}" name="Parameter [Library RNA amount]" dataDxfId="0"/>
     <tableColumn id="19" xr3:uid="{D350DE95-22D9-4C48-8FD4-7F17FE1B153B}" name="Term Source REF [Library RNA amount] (#h; #tNFDI4PSO:0000016)"/>
     <tableColumn id="20" xr3:uid="{7E37E215-7AA7-3E45-BA96-B450C1E93B12}" name="Term Accession Number [Library RNA amount] (#h; #tNFDI4PSO:0000016)"/>
     <tableColumn id="36" xr3:uid="{9CAC168C-0CD8-E24A-B25C-EDA4E42AA84E}" name="Unit [microgram] (#h; #tUO:0000023; #u)"/>
     <tableColumn id="37" xr3:uid="{5AEAA556-05BD-FE4E-9E84-69BDB498DD20}" name="Term Source REF [microgram] (#h; #tUO:0000023; #u)"/>
     <tableColumn id="38" xr3:uid="{842C4352-C24F-0644-8593-D8736BB88F8D}" name="Term Accession Number [microgram] (#h; #tUO:0000023; #u)"/>
-    <tableColumn id="27" xr3:uid="{24CCEEDB-A0AF-684D-9D6D-7326D9EFB476}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="11"/>
+    <tableColumn id="27" xr3:uid="{24CCEEDB-A0AF-684D-9D6D-7326D9EFB476}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="22"/>
     <tableColumn id="28" xr3:uid="{2BFF580D-CCA0-0345-B808-5F5A1B3D3896}" name="Term Source REF [Next generation sequencing instrument model] (#h; #tNFDI4PSO:0000040)"/>
     <tableColumn id="29" xr3:uid="{95D5E7F6-2884-B745-BDA8-798418A2BD07}" name="Term Accession Number [Next generation sequencing instrument model] (#h; #tNFDI4PSO:0000040)"/>
-    <tableColumn id="30" xr3:uid="{EA7A7326-1A7C-A846-8FBF-E381D349698F}" name="Parameter [Base-calling Software]" dataDxfId="10"/>
+    <tableColumn id="30" xr3:uid="{EA7A7326-1A7C-A846-8FBF-E381D349698F}" name="Parameter [Base-calling Software]" dataDxfId="21"/>
     <tableColumn id="31" xr3:uid="{7D7B7455-8E82-2B46-9BB8-CA37B80DB468}" name="Term Source REF [Base-calling Software] (#h; #tNFDI4PSO:0000017)"/>
     <tableColumn id="32" xr3:uid="{EBDEFF6F-6B01-C54F-AF17-15C2AF95C7AB}" name="Term Accession Number [Base-calling Software] (#h; #tNFDI4PSO:0000017)"/>
-    <tableColumn id="33" xr3:uid="{440360CA-BD83-A24F-ACCB-F08E4E07B309}" name="Parameter [Base-calling Software Version]" dataDxfId="9"/>
+    <tableColumn id="33" xr3:uid="{440360CA-BD83-A24F-ACCB-F08E4E07B309}" name="Parameter [Base-calling Software Version]" dataDxfId="20"/>
     <tableColumn id="34" xr3:uid="{910E1F5D-888F-094B-B509-1D3E5EAF20B2}" name="Term Source REF [Base-calling Software Version] (#h; #tNFDI4PSO:0000018)"/>
     <tableColumn id="35" xr3:uid="{C3192EE8-6CFD-FA41-B093-05A3AFCD5131}" name="Term Accession Number [Base-calling Software Version] (#h; #tNFDI4PSO:0000018)"/>
-    <tableColumn id="39" xr3:uid="{80C1A8E9-93E0-E447-BD7C-42D79D1FCA97}" name="Parameter [Base-calling Software Parameters]" dataDxfId="8"/>
+    <tableColumn id="39" xr3:uid="{80C1A8E9-93E0-E447-BD7C-42D79D1FCA97}" name="Parameter [Base-calling Software Parameters]" dataDxfId="19"/>
     <tableColumn id="40" xr3:uid="{F919BED9-0D13-0D46-8D95-0BE92F377FAA}" name="Term Source REF [Base-calling Software Parameters] (#h; #tNFDI4PSO:0000019)"/>
     <tableColumn id="41" xr3:uid="{4D29BD77-D990-7043-9498-70A782038238}" name="Term Accession Number [Base-calling Software Parameters] (#h; #tNFDI4PSO:0000019)"/>
-    <tableColumn id="42" xr3:uid="{5DEEB0AA-4BC3-F04E-ADAF-CB6EC27B6F47}" name="Parameter [Library strand]" dataDxfId="7"/>
+    <tableColumn id="42" xr3:uid="{5DEEB0AA-4BC3-F04E-ADAF-CB6EC27B6F47}" name="Parameter [Library strand]" dataDxfId="18"/>
     <tableColumn id="43" xr3:uid="{4A2942EF-C8A7-B447-A2D0-71C6825B7E67}" name="Term Source REF [Library strand] (#h; #tNFDI4PSO:0000020)"/>
     <tableColumn id="44" xr3:uid="{F8E13DAD-A5E8-6043-93D9-AAF673CBB1AE}" name="Term Accession Number [Library strand] (#h; #tNFDI4PSO:0000020)"/>
-    <tableColumn id="45" xr3:uid="{6485F3EF-9735-B74E-958B-107722DC588D}" name="Data File Name" dataDxfId="6"/>
-    <tableColumn id="46" xr3:uid="{0425BA52-9F21-3C43-9855-4DCF1AB9FDC8}" name="Parameter [Raw data file format]" dataDxfId="5"/>
-    <tableColumn id="47" xr3:uid="{FFB5D601-D1A6-E247-9839-723F644EC700}" name="Term Source REF [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="4"/>
-    <tableColumn id="48" xr3:uid="{C692B159-D0C9-534A-A34D-23F9298131E4}" name="Term Accession Number [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="3"/>
-    <tableColumn id="49" xr3:uid="{00B39407-5107-5447-86CF-D22F8056A82A}" name="Parameter [Raw data file checksum]" dataDxfId="2"/>
-    <tableColumn id="50" xr3:uid="{4EC9F64B-15B4-AE42-8B72-B0FEA0C2E349}" name="Term Source REF [Raw data file checksum] (#h; #tNFDI4PSO:0000022)" dataDxfId="1"/>
-    <tableColumn id="51" xr3:uid="{F5E8E62E-F8E6-814B-B57F-6C79EC78A7D1}" name="Term Accession Number [Raw data file checksum] (#h; #tNFDI4PSO:0000022)" dataDxfId="0"/>
+    <tableColumn id="45" xr3:uid="{6485F3EF-9735-B74E-958B-107722DC588D}" name="Data File Name" dataDxfId="17"/>
+    <tableColumn id="46" xr3:uid="{0425BA52-9F21-3C43-9855-4DCF1AB9FDC8}" name="Parameter [Raw data file format]" dataDxfId="16"/>
+    <tableColumn id="47" xr3:uid="{FFB5D601-D1A6-E247-9839-723F644EC700}" name="Term Source REF [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="15"/>
+    <tableColumn id="48" xr3:uid="{C692B159-D0C9-534A-A34D-23F9298131E4}" name="Term Accession Number [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="14"/>
+    <tableColumn id="49" xr3:uid="{00B39407-5107-5447-86CF-D22F8056A82A}" name="Parameter [Raw data file checksum]" dataDxfId="13"/>
+    <tableColumn id="50" xr3:uid="{4EC9F64B-15B4-AE42-8B72-B0FEA0C2E349}" name="Term Source REF [Raw data file checksum] (#h; #tNFDI4PSO:0000022)" dataDxfId="12"/>
+    <tableColumn id="51" xr3:uid="{F5E8E62E-F8E6-814B-B57F-6C79EC78A7D1}" name="Term Accession Number [Raw data file checksum] (#h; #tNFDI4PSO:0000022)" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -709,69 +1428,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED1A3CE-FE98-7049-B638-99684531C7F7}">
-  <dimension ref="A1:AV3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED1A3CE-FE98-7049-B638-99684531C7F7}">
+  <dimension ref="A1:BB69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <pane xSplit="2" ySplit="21" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="63.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.33203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="41.5" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="68.5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="74.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61.83203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="68" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="58" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="64.1640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="60.1640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="66.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="38.33203125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="49.1640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="55.5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="82.33203125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="88.5" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="61.5" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="67.6640625" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="68.33203125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="74.5" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="43" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="71.83203125" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="78" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="54.5" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="60.83203125" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="60.6640625" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="66.83203125" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="63.1640625" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="69.33203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" style="23" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="62.5" style="23" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="42.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57" style="23" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="63.1640625" style="23" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.33203125" style="23" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5" style="23" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="37" customWidth="1"/>
+    <col min="15" max="15" width="33" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.83203125" style="23" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="68" style="23" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="39.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="68.5" style="23" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="74.6640625" style="23" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="29.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="58" style="23" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="64.1640625" style="23" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="27.6640625" style="23" customWidth="1"/>
+    <col min="25" max="25" width="60.1640625" style="23" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="66.33203125" style="23" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="38.33203125" style="23" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="49.1640625" style="23" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="55.5" style="23" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="19.83203125" style="23" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="82.33203125" style="23" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="10.1640625" style="23" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="32.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="61.5" style="23" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="67.6640625" style="23" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="39.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="68.33203125" style="23" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="74.5" style="23" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="43" style="23" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="71.83203125" style="23" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="78" style="23" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="25.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="54.5" style="23" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="60.83203125" style="23" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="20.33203125" style="23" customWidth="1"/>
+    <col min="46" max="46" width="31.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="60.6640625" style="23" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="66.83203125" style="23" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="34.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="63.1640625" style="23" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="69.33203125" style="23" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="63.1640625" style="23" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="69.33203125" style="23" hidden="1" customWidth="1"/>
+    <col min="54" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -816,50 +1546,51 @@
       <c r="AS1" s="4"/>
       <c r="AT1" s="4"/>
       <c r="AU1" s="4"/>
-      <c r="AV1" s="2"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="2"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
+      <c r="N2" s="35" t="s">
+        <v>66</v>
       </c>
       <c r="O2" t="s">
         <v>11</v>
@@ -871,125 +1602,1997 @@
         <v>13</v>
       </c>
       <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
         <v>20</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>21</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>22</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>17</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>18</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>19</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>32</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>33</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>34</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>35</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>36</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>37</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>38</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>39</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>40</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>41</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>42</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>43</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="L3" s="3"/>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" s="3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="O3" s="3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
       <c r="R3" s="3"/>
-      <c r="U3" s="5"/>
-      <c r="AA3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
       <c r="AD3" s="3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
       <c r="AG3" s="3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
       <c r="AJ3" s="3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
       <c r="AM3" s="3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
       <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="24"/>
+      <c r="AY4" s="24"/>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="24"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="25">
+        <v>1.7</v>
+      </c>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW6" s="28"/>
+      <c r="AX6" s="25"/>
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="25"/>
+      <c r="BA6" s="25"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
+      <c r="AV8" s="25"/>
+      <c r="AW8" s="25"/>
+      <c r="AX8" s="25"/>
+      <c r="AY8" s="25"/>
+      <c r="AZ8" s="25"/>
+      <c r="BA8" s="25"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="24"/>
+      <c r="AS10" s="24"/>
+      <c r="AT10" s="24"/>
+      <c r="AU10" s="24"/>
+      <c r="AV10" s="24"/>
+      <c r="AW10" s="24"/>
+      <c r="AX10" s="24"/>
+      <c r="AY10" s="24"/>
+      <c r="AZ10" s="24"/>
+      <c r="BA10" s="24"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX11" s="26"/>
+      <c r="AY11" s="26"/>
+      <c r="AZ11" s="26"/>
+      <c r="BA11" s="26"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="27"/>
+      <c r="AW12" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX12" s="27"/>
+      <c r="AY12" s="27"/>
+      <c r="AZ12" s="27"/>
+      <c r="BA12" s="27"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="28"/>
+      <c r="AU13" s="28"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="28"/>
+      <c r="AX13" s="28"/>
+      <c r="AY13" s="28"/>
+      <c r="AZ13" s="28"/>
+      <c r="BA13" s="28"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="28"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="29"/>
+      <c r="AT15" s="29"/>
+      <c r="AU15" s="29"/>
+      <c r="AV15" s="29"/>
+      <c r="AW15" s="29"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="29"/>
+      <c r="AZ15" s="29"/>
+      <c r="BA15" s="29"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="30"/>
+      <c r="AX16" s="30"/>
+      <c r="AY16" s="30"/>
+      <c r="AZ16" s="30"/>
+      <c r="BA16" s="30"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="28"/>
+      <c r="AS17" s="28"/>
+      <c r="AT17" s="28"/>
+      <c r="AU17" s="28"/>
+      <c r="AV17" s="28"/>
+      <c r="AW17" s="28"/>
+      <c r="AX17" s="28"/>
+      <c r="AY17" s="28"/>
+      <c r="AZ17" s="28"/>
+      <c r="BA17" s="28"/>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
+      <c r="AT18" s="28"/>
+      <c r="AU18" s="28"/>
+      <c r="AV18" s="28"/>
+      <c r="AW18" s="28"/>
+      <c r="AX18" s="28"/>
+      <c r="AY18" s="28"/>
+      <c r="AZ18" s="28"/>
+      <c r="BA18" s="28"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="28"/>
+      <c r="AU19" s="28"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="28"/>
+      <c r="AX19" s="28"/>
+      <c r="AY19" s="28"/>
+      <c r="AZ19" s="28"/>
+      <c r="BA19" s="28"/>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="31"/>
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="31"/>
+      <c r="AZ20" s="31"/>
+      <c r="BA20" s="31"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="31"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
+      <c r="AZ21" s="31"/>
+      <c r="BA21" s="31"/>
+    </row>
+    <row r="22" spans="1:53" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ22" s="28"/>
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT22" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU22" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX22" s="28"/>
+      <c r="AY22" s="28"/>
+      <c r="AZ22" s="28"/>
+      <c r="BA22" s="28"/>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="28"/>
+      <c r="AS23" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT23" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU23" s="28"/>
+      <c r="AV23" s="28"/>
+      <c r="AW23" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX23" s="28"/>
+      <c r="AY23" s="28"/>
+      <c r="AZ23" s="28"/>
+      <c r="BA23" s="28"/>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="28"/>
+      <c r="AU24" s="28"/>
+      <c r="AV24" s="28"/>
+      <c r="AW24" s="28"/>
+      <c r="AX24" s="28"/>
+      <c r="AY24" s="28"/>
+      <c r="AZ24" s="28"/>
+      <c r="BA24" s="28"/>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="28"/>
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="28"/>
+      <c r="AY25" s="28"/>
+      <c r="AZ25" s="28"/>
+      <c r="BA25" s="28"/>
+    </row>
+    <row r="26" spans="1:53" ht="119" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
+      <c r="AT26" s="28"/>
+      <c r="AU26" s="28"/>
+      <c r="AV26" s="28"/>
+      <c r="AW26" s="28"/>
+      <c r="AX26" s="28"/>
+      <c r="AY26" s="28"/>
+      <c r="AZ26" s="28"/>
+      <c r="BA26" s="28"/>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="28"/>
+      <c r="AQ27" s="28"/>
+      <c r="AR27" s="28"/>
+      <c r="AS27" s="28"/>
+      <c r="AT27" s="28"/>
+      <c r="AU27" s="28"/>
+      <c r="AV27" s="28"/>
+      <c r="AW27" s="28"/>
+      <c r="AX27" s="28"/>
+      <c r="AY27" s="28"/>
+      <c r="AZ27" s="28"/>
+      <c r="BA27" s="28"/>
+    </row>
+    <row r="28" spans="1:53" s="49" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A28" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="46"/>
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
+      <c r="AR28" s="46"/>
+      <c r="AS28" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="46"/>
+      <c r="AV28" s="46"/>
+      <c r="AW28" s="46"/>
+      <c r="AX28" s="46"/>
+      <c r="AY28" s="46"/>
+      <c r="AZ28" s="46"/>
+      <c r="BA28" s="46"/>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="32"/>
+      <c r="AW29" s="32"/>
+      <c r="AX29" s="32"/>
+      <c r="AY29" s="32"/>
+      <c r="AZ29" s="32"/>
+      <c r="BA29" s="32"/>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B31" s="20"/>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B32" s="20"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="20"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="21"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="21"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="21"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="21"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="21"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="21"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="21"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="21"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="21"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="21"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="21"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="21"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="21"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="21"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="21"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="21"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="21"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="21"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="21"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="21"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="21"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="21"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="21"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="21"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="21"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="21"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="22"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="21"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E15" r:id="rId1" xr:uid="{121AB7A7-6F7F-F14A-85D5-76293BDEEF72}"/>
+    <hyperlink ref="H15" r:id="rId2" xr:uid="{1B29B5A8-C356-A540-924F-3D4199F43A52}"/>
+    <hyperlink ref="O15" r:id="rId3" xr:uid="{07079257-C442-E440-BEA4-04EE0C7E30DC}"/>
+    <hyperlink ref="R15" r:id="rId4" xr:uid="{630BD8D1-89DE-4B49-807A-CEB2D7D98DDF}"/>
+    <hyperlink ref="U15" r:id="rId5" xr:uid="{21540447-9E95-E74C-8AAE-FF445045BFA1}"/>
+    <hyperlink ref="AD15" r:id="rId6" xr:uid="{802FB67F-63B8-6F45-A352-CA9DA10EAE18}"/>
+    <hyperlink ref="AG15" r:id="rId7" xr:uid="{0CCD4B95-C043-2842-B7FF-95C38B420646}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
